--- a/TCCB/TCCB/obj/Release/Package/PackageTmp/Utils/Excel/ds-chuahoanthanh.xlsx
+++ b/TCCB/TCCB/obj/Release/Package/PackageTmp/Utils/Excel/ds-chuahoanthanh.xlsx
@@ -5,22 +5,22 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="6 5 2018 12 00 00 AM" sheetId="1" r:id="rId1"/>
+    <sheet name="6 7 2018 12 00 00 AM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DANH SÁCH ỨNG VIÊN CHƯA HOÀN THÀNH HỒ SƠ</t>
   </si>
   <si>
-    <t>PHÒNG GIÁO DỤC VÀ ĐÀO TẠO QUẬN 3</t>
-  </si>
-  <si>
-    <t>Tính tới ngày 5/6/2018</t>
+    <t>SỞ GIÁO DỤC VÀ ĐÀO TẠO TP.HỒ CHÍ MINH</t>
+  </si>
+  <si>
+    <t>Tính tới ngày 7/6/2018</t>
   </si>
   <si>
     <t>STT</t>
@@ -32,7 +32,43 @@
     <t>TÊN</t>
   </si>
   <si>
-    <t>truong huu thanh</t>
+    <t>Trương Hữu</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Hồng   </t>
+  </si>
+  <si>
+    <t>Quân</t>
+  </si>
+  <si>
+    <t>truong huu</t>
+  </si>
+  <si>
+    <t>thanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>123214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123141412 </t>
+  </si>
+  <si>
+    <t>12123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trương Thị                                        </t>
+  </si>
+  <si>
+    <t>Hạnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truong huu                                        </t>
   </si>
 </sst>
 </file>
@@ -108,7 +144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I7"/>
+  <dimension ref="A2:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -173,8 +209,242 @@
       <c r="A7" s="0">
         <v>1</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>8</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>9</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>10</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>11</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>13</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>14</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>15</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>16</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>17</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>18</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>19</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>20</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>21</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>22</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
